--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Документы\GitHub\FM_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD60E70-BA76-4A95-9BCB-0C1EB3E6CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590164CE-D4B4-4F52-B31C-9C8DDFED7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12964EAB-A381-4EB5-BECF-39A45A680FB6}"/>
+    <workbookView xWindow="3780" yWindow="1665" windowWidth="21600" windowHeight="13815" xr2:uid="{12964EAB-A381-4EB5-BECF-39A45A680FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -269,13 +269,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -595,7 +595,7 @@
   <dimension ref="B1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
         <v>952508</v>
       </c>
       <c r="E3" s="4">
-        <v>14002</v>
+        <v>22707</v>
       </c>
       <c r="F3" s="4">
         <v>23126</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="K3" s="5">
         <f>E34/E3</f>
-        <v>1.6216969004427939</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <f>F34/F3</f>
@@ -687,7 +687,7 @@
         <v>1291932</v>
       </c>
       <c r="E4" s="4">
-        <v>32238</v>
+        <v>35214</v>
       </c>
       <c r="F4" s="4">
         <v>140399</v>
@@ -703,7 +703,7 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:K30" si="0">E35/E4</f>
-        <v>1.0923134189465848</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" ref="L4:L30" si="1">F35/F4</f>
@@ -721,7 +721,7 @@
         <v>630803</v>
       </c>
       <c r="E5" s="4">
-        <v>15209</v>
+        <v>21452</v>
       </c>
       <c r="F5" s="4">
         <v>55709</v>
@@ -737,7 +737,7 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1.4104806364652509</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
@@ -755,7 +755,7 @@
         <v>698340</v>
       </c>
       <c r="E6" s="4">
-        <v>24325</v>
+        <v>20009</v>
       </c>
       <c r="F6" s="4">
         <v>36656</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>0.82256937307297018</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
@@ -789,7 +789,7 @@
         <v>522483</v>
       </c>
       <c r="E7" s="4">
-        <v>13033</v>
+        <v>16651</v>
       </c>
       <c r="F7" s="4">
         <v>30970</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>1.2776030077495588</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
@@ -823,7 +823,7 @@
         <v>1010322</v>
       </c>
       <c r="E8" s="4">
-        <v>37014</v>
+        <v>52159</v>
       </c>
       <c r="F8" s="4">
         <v>51584</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>1.4091695034311342</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
@@ -857,7 +857,7 @@
         <v>917945</v>
       </c>
       <c r="E9" s="4">
-        <v>13955</v>
+        <v>20663</v>
       </c>
       <c r="F9" s="4">
         <v>29816</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>1.4806879254747403</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
@@ -891,7 +891,7 @@
         <v>1011663</v>
       </c>
       <c r="E10" s="4">
-        <v>15884</v>
+        <v>21105</v>
       </c>
       <c r="F10" s="4">
         <v>35053</v>
@@ -907,7 +907,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>1.3286955426844624</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
@@ -925,7 +925,7 @@
         <v>1360218</v>
       </c>
       <c r="E11" s="4">
-        <v>49491</v>
+        <v>57791</v>
       </c>
       <c r="F11" s="4">
         <v>122897</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>1.1677072599058416</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
@@ -959,7 +959,7 @@
         <v>844333</v>
       </c>
       <c r="E12" s="4">
-        <v>17919</v>
+        <v>25918</v>
       </c>
       <c r="F12" s="4">
         <v>24719</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>1.4463976784418773</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
@@ -993,7 +993,7 @@
         <v>12753</v>
       </c>
       <c r="E13" s="4">
-        <v>786</v>
+        <v>1942</v>
       </c>
       <c r="F13" s="4">
         <v>204</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>2.4707379134860052</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
@@ -1027,7 +1027,7 @@
         <v>19602</v>
       </c>
       <c r="E14" s="4">
-        <v>962</v>
+        <v>1197</v>
       </c>
       <c r="F14" s="4">
         <v>555</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>1.2442827442827442</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
@@ -1061,7 +1061,7 @@
         <v>23137</v>
       </c>
       <c r="E15" s="4">
-        <v>1695</v>
+        <v>4378</v>
       </c>
       <c r="F15" s="4">
         <v>810</v>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>2.5828908554572272</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
@@ -1095,7 +1095,7 @@
         <v>27508</v>
       </c>
       <c r="E16" s="4">
-        <v>3269</v>
+        <v>5180</v>
       </c>
       <c r="F16" s="4">
         <v>665</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>1.5845824411134903</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
@@ -1129,7 +1129,7 @@
         <v>29348</v>
       </c>
       <c r="E17" s="4">
-        <v>2371</v>
+        <v>6788</v>
       </c>
       <c r="F17" s="4">
         <v>1538</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>2.8629270350063263</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="1"/>
@@ -1163,7 +1163,7 @@
         <v>32499</v>
       </c>
       <c r="E18" s="4">
-        <v>1590</v>
+        <v>5625</v>
       </c>
       <c r="F18" s="4">
         <v>1336</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>3.5377358490566038</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
@@ -1197,7 +1197,7 @@
         <v>45927</v>
       </c>
       <c r="E19" s="4">
-        <v>2513</v>
+        <v>8254</v>
       </c>
       <c r="F19" s="4">
         <v>1889</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>3.2845204934341425</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
@@ -1231,7 +1231,7 @@
         <v>51310</v>
       </c>
       <c r="E20" s="4">
-        <v>3260</v>
+        <v>9071</v>
       </c>
       <c r="F20" s="4">
         <v>3300</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>2.7825153374233129</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="1"/>
@@ -1265,7 +1265,7 @@
         <v>53396</v>
       </c>
       <c r="E21" s="4">
-        <v>3856</v>
+        <v>10324</v>
       </c>
       <c r="F21" s="4">
         <v>1846</v>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>2.6773858921161824</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="1"/>
@@ -1299,7 +1299,7 @@
         <v>69430</v>
       </c>
       <c r="E22" s="4">
-        <v>2580</v>
+        <v>13004</v>
       </c>
       <c r="F22" s="4">
         <v>2182</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>5.0403100775193801</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
@@ -1333,7 +1333,7 @@
         <v>70559</v>
       </c>
       <c r="E23" s="4">
-        <v>7680</v>
+        <v>13443</v>
       </c>
       <c r="F23" s="4">
         <v>3296</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>1.7503906250000001</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
@@ -1367,7 +1367,7 @@
         <v>71077</v>
       </c>
       <c r="E24" s="4">
-        <v>4436</v>
+        <v>14668</v>
       </c>
       <c r="F24" s="4">
         <v>2130</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>3.3065825067628496</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
@@ -1401,7 +1401,7 @@
         <v>84200</v>
       </c>
       <c r="E25" s="4">
-        <v>3350</v>
+        <v>16457</v>
       </c>
       <c r="F25" s="4">
         <v>2358</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>4.9125373134328356</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="1"/>
@@ -1435,7 +1435,7 @@
         <v>147606</v>
       </c>
       <c r="E26" s="4">
-        <v>10996</v>
+        <v>23257</v>
       </c>
       <c r="F26" s="4">
         <v>7384</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>2.1150418333939616</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
@@ -1469,7 +1469,7 @@
         <v>161571</v>
       </c>
       <c r="E27" s="4">
-        <v>10291</v>
+        <v>30424</v>
       </c>
       <c r="F27" s="4">
         <v>9216</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>2.9563696433777085</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="1"/>
@@ -1503,7 +1503,7 @@
         <v>183485</v>
       </c>
       <c r="E28" s="4">
-        <v>5455</v>
+        <v>34094</v>
       </c>
       <c r="F28" s="4">
         <v>9219</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>6.2500458295142067</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
@@ -1537,7 +1537,7 @@
         <v>185496</v>
       </c>
       <c r="E29" s="4">
-        <v>11696</v>
+        <v>40445</v>
       </c>
       <c r="F29" s="4">
         <v>15807</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>3.4580198358413132</v>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="1"/>
@@ -1571,7 +1571,7 @@
         <v>210614</v>
       </c>
       <c r="E30" s="4">
-        <v>4073</v>
+        <v>32410</v>
       </c>
       <c r="F30" s="4">
         <v>10345</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>7.9572796464522462</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Документы\GitHub\FM_Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590164CE-D4B4-4F52-B31C-9C8DDFED7E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3C369F-7355-490E-9865-834FA794C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1665" windowWidth="21600" windowHeight="13815" xr2:uid="{12964EAB-A381-4EB5-BECF-39A45A680FB6}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{12964EAB-A381-4EB5-BECF-39A45A680FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>Файл</t>
   </si>
@@ -134,6 +134,9 @@
   <si>
     <t>Отношение показателей
 оригинальный алгоритм / модифицированный алгоритм</t>
+  </si>
+  <si>
+    <t>Итерации</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,11 +253,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -277,6 +313,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B8778-CA6E-49D0-ACC6-CEEC40A79E06}">
-  <dimension ref="B1:L62"/>
+  <dimension ref="B1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +652,16 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,26 +674,32 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -653,30 +710,37 @@
         <v>952508</v>
       </c>
       <c r="E3" s="4">
-        <v>22707</v>
-      </c>
-      <c r="F3" s="4">
-        <v>23126</v>
-      </c>
-      <c r="H3" s="3" t="s">
+        <v>9847</v>
+      </c>
+      <c r="F3" s="11">
+        <v>21430</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>935732</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>952508</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <f>E34/E3</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+        <v>2.3059815172133646</v>
+      </c>
+      <c r="M3" s="1">
         <f>F34/F3</f>
-        <v>2.7831012712963763</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.9287447503499766</v>
+      </c>
+      <c r="N3" s="1">
+        <f>G34/G3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -687,30 +751,37 @@
         <v>1291932</v>
       </c>
       <c r="E4" s="4">
-        <v>35214</v>
-      </c>
-      <c r="F4" s="4">
-        <v>140399</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>28188</v>
+      </c>
+      <c r="F4" s="11">
+        <v>141630</v>
+      </c>
+      <c r="G4" s="1">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>1293437</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>1291932</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K30" si="0">E35/E4</f>
-        <v>1</v>
-      </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L30" si="1">F35/F4</f>
-        <v>0.7903403870397937</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L4:L30" si="0">E35/E4</f>
+        <v>1.2492550021285653</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M30" si="1">F35/F4</f>
+        <v>0.4792134434794888</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N30" si="2">G35/G4</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -721,30 +792,37 @@
         <v>630803</v>
       </c>
       <c r="E5" s="4">
-        <v>21452</v>
-      </c>
-      <c r="F5" s="4">
-        <v>55709</v>
-      </c>
-      <c r="H5" s="3" t="s">
+        <v>14928</v>
+      </c>
+      <c r="F5" s="11">
+        <v>43639</v>
+      </c>
+      <c r="G5" s="1">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>619816</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>630803</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7978782602452028</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.4370310825294748</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4783336006782923</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61290322580645162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -755,30 +833,37 @@
         <v>698340</v>
       </c>
       <c r="E6" s="4">
-        <v>20009</v>
-      </c>
-      <c r="F6" s="4">
-        <v>36656</v>
-      </c>
-      <c r="H6" s="3" t="s">
+        <v>27210</v>
+      </c>
+      <c r="F6" s="11">
+        <v>11554</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>697459</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>698340</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4077913574858141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.73535464902609338</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.07685649991345</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -789,30 +874,37 @@
         <v>522483</v>
       </c>
       <c r="E7" s="4">
-        <v>16651</v>
-      </c>
-      <c r="F7" s="4">
-        <v>30970</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>12657</v>
+      </c>
+      <c r="F7" s="11">
+        <v>30093</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>511686</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>522483</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0170810461737165</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.3155566089910722</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4584122553417738</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -823,30 +915,37 @@
         <v>1010322</v>
       </c>
       <c r="E8" s="4">
-        <v>52159</v>
-      </c>
-      <c r="F8" s="4">
-        <v>51584</v>
-      </c>
-      <c r="H8" s="3" t="s">
+        <v>35914</v>
+      </c>
+      <c r="F8" s="11">
+        <v>41847</v>
+      </c>
+      <c r="G8" s="1">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>990900</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>1010322</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6769347084367245</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.4523305674667262</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3044423734078907</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -857,30 +956,37 @@
         <v>917945</v>
       </c>
       <c r="E9" s="4">
-        <v>20663</v>
-      </c>
-      <c r="F9" s="4">
-        <v>29816</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>19635</v>
+      </c>
+      <c r="F9" s="11">
+        <v>25262</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>898002</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>917945</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>3.1457271263751005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.0523554876496053</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.3473200855039189</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -891,30 +997,37 @@
         <v>1011663</v>
       </c>
       <c r="E10" s="4">
-        <v>21105</v>
-      </c>
-      <c r="F10" s="4">
-        <v>35053</v>
-      </c>
-      <c r="H10" s="3" t="s">
+        <v>21458</v>
+      </c>
+      <c r="F10" s="11">
+        <v>33040</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>1006630</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>1011663</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.9921547371123727</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.98354925901761581</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3316888619854721</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -925,30 +1038,37 @@
         <v>1360218</v>
       </c>
       <c r="E11" s="4">
-        <v>57791</v>
-      </c>
-      <c r="F11" s="4">
-        <v>122897</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>52610</v>
+      </c>
+      <c r="F11" s="11">
+        <v>55450</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>1340419</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>1360218</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1000024410685372</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.0984793765443832</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.691127141568981</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -959,30 +1079,37 @@
         <v>844333</v>
       </c>
       <c r="E12" s="4">
-        <v>25918</v>
-      </c>
-      <c r="F12" s="4">
-        <v>24719</v>
-      </c>
-      <c r="H12" s="3" t="s">
+        <v>16012</v>
+      </c>
+      <c r="F12" s="11">
+        <v>33721</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>833809</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>844333</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6186610042468148</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1529907179502388</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L12" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4490877462680527</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -993,30 +1120,37 @@
         <v>12753</v>
       </c>
       <c r="E13" s="4">
-        <v>1942</v>
-      </c>
-      <c r="F13" s="4">
-        <v>204</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F13" s="11">
+        <v>253</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>14112</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>12753</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3137254901960786</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.8303747534516766</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4189723320158101</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1027,30 +1161,37 @@
         <v>19602</v>
       </c>
       <c r="E14" s="4">
-        <v>1197</v>
-      </c>
-      <c r="F14" s="4">
-        <v>555</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="11">
+        <v>273</v>
+      </c>
+      <c r="G14" s="10">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>19585</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>19602</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0054054054054054</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1318681318681318</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1061,30 +1202,37 @@
         <v>23137</v>
       </c>
       <c r="E15" s="4">
-        <v>4378</v>
-      </c>
-      <c r="F15" s="4">
-        <v>810</v>
-      </c>
-      <c r="H15" s="3" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F15" s="11">
+        <v>498</v>
+      </c>
+      <c r="G15" s="1">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>27402</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>23137</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
-        <v>3.1283950617283951</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.6154981549815499</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1506024096385543</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1095,30 +1243,37 @@
         <v>27508</v>
       </c>
       <c r="E16" s="4">
-        <v>5180</v>
-      </c>
-      <c r="F16" s="4">
-        <v>665</v>
-      </c>
-      <c r="H16" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F16" s="11">
+        <v>438</v>
+      </c>
+      <c r="G16" s="10">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>31971</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>27508</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9815526518063029</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9063926940639266</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L16" s="4">
-        <f t="shared" si="1"/>
-        <v>3.693233082706767</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1129,30 +1284,37 @@
         <v>29348</v>
       </c>
       <c r="E17" s="4">
-        <v>6788</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1538</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F17" s="11">
+        <v>773</v>
+      </c>
+      <c r="G17" s="1">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>28447</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>29348</v>
       </c>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0884265279583873</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.7365055001279099</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0413971539456659</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2272727272727273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1163,30 +1325,37 @@
         <v>32499</v>
       </c>
       <c r="E18" s="4">
-        <v>5625</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1336</v>
-      </c>
-      <c r="H18" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F18" s="11">
+        <v>512</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>34827</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>32499</v>
       </c>
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0149700598802394</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.4530386740331491</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="1"/>
+        <v>16.98828125</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1197,30 +1366,37 @@
         <v>45927</v>
       </c>
       <c r="E19" s="4">
-        <v>8254</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1889</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>4437</v>
+      </c>
+      <c r="F19" s="11">
+        <v>809</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>48118</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>45927</v>
       </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0465854949708842</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.8602659454586432</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
+        <v>11.635352286773795</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1231,30 +1407,37 @@
         <v>51310</v>
       </c>
       <c r="E20" s="4">
-        <v>9071</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3300</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>4774</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1473</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>50514</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>51310</v>
       </c>
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6863636363636363</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.9000837871805614</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9857433808553973</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1265,30 +1448,37 @@
         <v>53396</v>
       </c>
       <c r="E21" s="4">
-        <v>10324</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1846</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1851</v>
+      </c>
+      <c r="G21" s="1">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>60903</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>53396</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9019501625135424</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.9081690140845069</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9702863317125878</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1299,30 +1489,37 @@
         <v>69430</v>
       </c>
       <c r="E22" s="4">
-        <v>13004</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2182</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>75197</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>69430</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
-        <v>3.5779101741521542</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>4.901620806633999</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4520750988142295</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1333,30 +1530,37 @@
         <v>70559</v>
       </c>
       <c r="E23" s="4">
-        <v>13443</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3296</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>5622</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2745</v>
+      </c>
+      <c r="G23" s="1">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>81455</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>70559</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>4.7302791262135919</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.3911419423692637</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7096539162112929</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96296296296296291</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1367,30 +1571,37 @@
         <v>71077</v>
       </c>
       <c r="E24" s="4">
-        <v>14668</v>
-      </c>
-      <c r="F24" s="4">
-        <v>2130</v>
-      </c>
-      <c r="H24" s="3" t="s">
+        <v>4654</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1964</v>
+      </c>
+      <c r="G24" s="1">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>77241</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>71077</v>
       </c>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>10.243192488262912</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3.1516974645466265</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
+        <v>10.624745417515275</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1401,30 +1612,37 @@
         <v>84200</v>
       </c>
       <c r="E25" s="4">
-        <v>16457</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2358</v>
-      </c>
-      <c r="H25" s="3" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1808</v>
+      </c>
+      <c r="G25" s="10">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>99667</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>84200</v>
       </c>
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L25" s="4">
-        <f t="shared" si="1"/>
-        <v>6.9380831212892282</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>4.2035759897828866</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8335176991150437</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1435,30 +1653,37 @@
         <v>147606</v>
       </c>
       <c r="E26" s="4">
-        <v>23257</v>
-      </c>
-      <c r="F26" s="4">
-        <v>7384</v>
-      </c>
-      <c r="H26" s="3" t="s">
+        <v>11239</v>
+      </c>
+      <c r="F26" s="11">
+        <v>4077</v>
+      </c>
+      <c r="G26" s="1">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>152773</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>147606</v>
       </c>
-      <c r="K26" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>6.4003250270855903</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.0693122163893585</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
+        <v>10.952661270542066</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1469,30 +1694,37 @@
         <v>161571</v>
       </c>
       <c r="E27" s="4">
-        <v>30424</v>
-      </c>
-      <c r="F27" s="4">
-        <v>9216</v>
-      </c>
-      <c r="H27" s="3" t="s">
+        <v>6642</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3940</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>186609</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>161571</v>
       </c>
-      <c r="K27" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1499565972222223</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>4.5805480277024992</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="1"/>
+        <v>10.700253807106598</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4615384615384615</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1503,30 +1735,37 @@
         <v>183485</v>
       </c>
       <c r="E28" s="4">
-        <v>34094</v>
-      </c>
-      <c r="F28" s="4">
-        <v>9219</v>
-      </c>
-      <c r="H28" s="3" t="s">
+        <v>4715</v>
+      </c>
+      <c r="F28" s="11">
+        <v>6112</v>
+      </c>
+      <c r="G28" s="1">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>190049</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>183485</v>
       </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>13.831001193187982</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>7.2309650053022265</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>14.771924083769633</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1537,30 +1776,37 @@
         <v>185496</v>
       </c>
       <c r="E29" s="4">
-        <v>40445</v>
-      </c>
-      <c r="F29" s="4">
-        <v>15807</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>5031</v>
+      </c>
+      <c r="F29" s="11">
+        <v>8784</v>
+      </c>
+      <c r="G29" s="1">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>189582</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>185496</v>
       </c>
-      <c r="K29" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>3.8531030556082748</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>8.039157225203736</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="1"/>
+        <v>4.178051001821494</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0869565217391304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1571,47 +1817,56 @@
         <v>210614</v>
       </c>
       <c r="E30" s="4">
-        <v>32410</v>
-      </c>
-      <c r="F30" s="4">
-        <v>10345</v>
-      </c>
-      <c r="H30" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F30" s="11">
+        <v>8709</v>
+      </c>
+      <c r="G30" s="1">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>201921</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>210614</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="L30" s="4">
-        <f t="shared" si="1"/>
-        <v>10.738811019816337</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>12.106836010459469</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>7.6597772419336323</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="6" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="I31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +1882,11 @@
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
@@ -1642,10 +1900,13 @@
         <v>22707</v>
       </c>
       <c r="F34" s="4">
-        <v>64362</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41333</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1659,10 +1920,13 @@
         <v>35214</v>
       </c>
       <c r="F35" s="4">
-        <v>110963</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67871</v>
+      </c>
+      <c r="G35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1676,10 +1940,13 @@
         <v>21452</v>
       </c>
       <c r="F36" s="4">
-        <v>100158</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64513</v>
+      </c>
+      <c r="G36" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1693,10 +1960,13 @@
         <v>20009</v>
       </c>
       <c r="F37" s="4">
-        <v>51604</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35550</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -1710,10 +1980,13 @@
         <v>16651</v>
       </c>
       <c r="F38" s="4">
-        <v>62469</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43888</v>
+      </c>
+      <c r="G38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1727,10 +2000,13 @@
         <v>52159</v>
       </c>
       <c r="F39" s="4">
-        <v>86503</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54587</v>
+      </c>
+      <c r="G39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -1744,10 +2020,13 @@
         <v>20663</v>
       </c>
       <c r="F40" s="4">
-        <v>93793</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59298</v>
+      </c>
+      <c r="G40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
@@ -1761,10 +2040,13 @@
         <v>21105</v>
       </c>
       <c r="F41" s="4">
-        <v>69831</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
@@ -1778,10 +2060,13 @@
         <v>57791</v>
       </c>
       <c r="F42" s="4">
-        <v>135187</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93773</v>
+      </c>
+      <c r="G42" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
@@ -1795,10 +2080,13 @@
         <v>25918</v>
       </c>
       <c r="F43" s="4">
-        <v>85258</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72601</v>
+      </c>
+      <c r="G43" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>15</v>
       </c>
@@ -1812,10 +2100,13 @@
         <v>1942</v>
       </c>
       <c r="F44" s="4">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1829,10 +2120,13 @@
         <v>1197</v>
       </c>
       <c r="F45" s="4">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+      <c r="G45" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
@@ -1846,10 +2140,13 @@
         <v>4378</v>
       </c>
       <c r="F46" s="4">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2565</v>
+      </c>
+      <c r="G46" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>18</v>
       </c>
@@ -1863,10 +2160,13 @@
         <v>5180</v>
       </c>
       <c r="F47" s="4">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2587</v>
+      </c>
+      <c r="G47" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>19</v>
       </c>
@@ -1880,10 +2180,13 @@
         <v>6788</v>
       </c>
       <c r="F48" s="4">
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4670</v>
+      </c>
+      <c r="G48" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>20</v>
       </c>
@@ -1897,10 +2200,13 @@
         <v>5625</v>
       </c>
       <c r="F49" s="4">
-        <v>8036</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8698</v>
+      </c>
+      <c r="G49" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>21</v>
       </c>
@@ -1914,10 +2220,13 @@
         <v>8254</v>
       </c>
       <c r="F50" s="4">
-        <v>9533</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9413</v>
+      </c>
+      <c r="G50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>22</v>
       </c>
@@ -1931,10 +2240,13 @@
         <v>9071</v>
       </c>
       <c r="F51" s="4">
-        <v>5565</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5871</v>
+      </c>
+      <c r="G51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>23</v>
       </c>
@@ -1948,10 +2260,13 @@
         <v>10324</v>
       </c>
       <c r="F52" s="4">
-        <v>9049</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9200</v>
+      </c>
+      <c r="G52" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>24</v>
       </c>
@@ -1965,10 +2280,13 @@
         <v>13004</v>
       </c>
       <c r="F53" s="4">
-        <v>7807</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6987</v>
+      </c>
+      <c r="G53" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
@@ -1982,10 +2300,13 @@
         <v>13443</v>
       </c>
       <c r="F54" s="4">
-        <v>15591</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15673</v>
+      </c>
+      <c r="G54" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>26</v>
       </c>
@@ -1999,10 +2320,13 @@
         <v>14668</v>
       </c>
       <c r="F55" s="4">
-        <v>21818</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20867</v>
+      </c>
+      <c r="G55" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
@@ -2016,10 +2340,13 @@
         <v>16457</v>
       </c>
       <c r="F56" s="4">
-        <v>16360</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15971</v>
+      </c>
+      <c r="G56" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>28</v>
       </c>
@@ -2033,10 +2360,13 @@
         <v>23257</v>
       </c>
       <c r="F57" s="4">
-        <v>47260</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44654</v>
+      </c>
+      <c r="G57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
         <v>29</v>
       </c>
@@ -2050,10 +2380,13 @@
         <v>30424</v>
       </c>
       <c r="F58" s="4">
-        <v>38246</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42159</v>
+      </c>
+      <c r="G58" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>30</v>
       </c>
@@ -2067,10 +2400,13 @@
         <v>34094</v>
       </c>
       <c r="F59" s="4">
-        <v>127508</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90286</v>
+      </c>
+      <c r="G59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
         <v>31</v>
       </c>
@@ -2084,10 +2420,13 @@
         <v>40445</v>
       </c>
       <c r="F60" s="4">
-        <v>60906</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36700</v>
+      </c>
+      <c r="G60" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
         <v>32</v>
       </c>
@@ -2101,23 +2440,27 @@
         <v>32410</v>
       </c>
       <c r="F61" s="4">
-        <v>111093</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66709</v>
+      </c>
+      <c r="G61" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="B62:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
